--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Kachanov Aleksandr Igorevich</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Test Test Test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>Хорошие</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Хорошие</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>Полностью обеспечены</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Полностью обеспечены</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -476,6 +491,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>Полностью обеспечены</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Полностью обеспечены</t>
         </is>

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Test Test Test</t>
+          <t>d d d</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Хорошие</t>
+          <t>Неудовлетворительные</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>Слабо обеспечены</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>Не обеспечены</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>Не обеспечены</t>
         </is>
       </c>
     </row>

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Слабо обеспечены</t>
+          <t>Полностью обеспечены</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Не обеспечены</t>
+          <t>Полностью обеспечены</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Хорошие</t>
+          <t>Не работает вообще всё</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>Нихуя не работает</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>нету ничего</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>d d d</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>и и к</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f f h</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,12 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Не работает вообще всё</t>
+          <t>Неудовлетворительные</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Неудовлетворительные</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Хорошие</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Удовлетворительные</t>
         </is>
       </c>
     </row>
@@ -475,12 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Нихуя не работает</t>
+          <t>Полностью обеспечены</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Полностью обеспечены</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Частично обеспечены</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Слабо обеспечены</t>
         </is>
       </c>
     </row>
@@ -492,10 +522,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>нету ничего</t>
+          <t>Не обеспечены</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>Не обеспечены</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Частично обеспечены</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Не обеспечены</t>
         </is>

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Удовлетворительные</t>
+          <t>Хорошие</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Слабо обеспечены</t>
+          <t>Не обеспечены</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Не обеспечены</t>
+          <t>Слабо обеспечены</t>
         </is>
       </c>
     </row>

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Неудовлетворительные</t>
+          <t>Хорошие</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Полностью обеспечены</t>
+          <t>Частично обеспечены</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Не обеспечены</t>
+          <t>Частично обеспечены</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Хорошие</t>
+          <t>Неудовлетворительные</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Частично обеспечены</t>
+          <t>Полностью обеспечены</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/data/answers/1.xlsx
+++ b/data/answers/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,6 @@
           <t>Kachanov Aleksandr Igorevich</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>d d d</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>и и к</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>f f h</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -471,21 +456,6 @@
           <t>Неудовлетворительные</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Неудовлетворительные</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Хорошие</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Хорошие</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,22 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Частично обеспечены</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Полностью обеспечены</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Частично обеспечены</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Не обеспечены</t>
+          <t>Слабо обеспечены</t>
         </is>
       </c>
     </row>
@@ -521,21 +476,6 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Полностью обеспечены</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Не обеспечены</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Частично обеспечены</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>Слабо обеспечены</t>
         </is>
